--- a/inst/extdata/gradH2O/Table_S1.xlsx
+++ b/inst/extdata/gradH2O/Table_S1.xlsx
@@ -374,7 +374,7 @@
     <row r="1" spans="1:1025">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Distinct trends in chemical composition of proteins from metagenomes in redox and salinity gradients</t>
+          <t>Chemical signatures of redox and salinity gradients from compositional analysis of protein sequences</t>
         </is>
       </c>
       <c r="B1" s="2"/>

--- a/inst/extdata/gradH2O/Table_S1.xlsx
+++ b/inst/extdata/gradH2O/Table_S1.xlsx
@@ -4,13 +4,13 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView activeTab="0" windowWidth="25600" windowHeight="11510"/>
   </bookViews>
   <sheets>
-    <sheet name="TableS1.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S1 - Salinity gradients" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"TableS1.csv"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Table S1 - Salinity gradients"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
   </definedNames>
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79" count="79">
   <si>
     <t>Baltic_Sea-0.1s</t>
   </si>
@@ -242,6 +242,21 @@
   <si>
     <t>Amazon_River-PA</t>
   </si>
+  <si>
+    <t>Rodriguez_Brito-mic</t>
+  </si>
+  <si>
+    <t>MG-RAST</t>
+  </si>
+  <si>
+    <t>6-8%</t>
+  </si>
+  <si>
+    <t>12-14%</t>
+  </si>
+  <si>
+    <t>27-30%</t>
+  </si>
 </sst>
 </file>
 
@@ -346,15 +361,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AMK214"/>
+  <dimension ref="A1:AMK230"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="17.4" customWidth="1"/>
+    <col min="1" max="1" style="0" width="20.39877403846154" customWidth="1"/>
     <col min="2" max="2" style="0" width="11.91" customWidth="1"/>
     <col min="3" max="3" style="0" width="8.32" customWidth="1"/>
     <col min="4" max="4" style="0" width="16.63" customWidth="1"/>
@@ -371,10 +386,10 @@
     <col min="1026" max="16384" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025">
+    <row r="1" spans="1:1025" customHeight="1" ht="16.5">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Chemical signatures of redox and salinity gradients from compositional analysis of protein sequences</t>
+          <t>Uncovering chemical signatures of salinity gradients through compositional analysis of protein sequences</t>
         </is>
       </c>
       <c r="B1" s="2"/>
@@ -390,10 +405,10 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:1025">
+    <row r="2" spans="1:1025" customHeight="1" ht="16.5">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Table S1: Details of metagenomic and metatranscriptomic data analyzed in this study.</t>
+          <t>Table S1: Details of metagenomic and metatranscriptomic data for salinity gradients analyzed in this study.</t>
         </is>
       </c>
       <c r="B2" s="2"/>
@@ -409,7 +424,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:1025">
+    <row r="3" spans="1:1025" customHeight="1" ht="16.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -424,7 +439,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:1025" ht="12.75">
+    <row r="4" spans="1:1025">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>study name (a)</t>
@@ -491,7 +506,7 @@
         </is>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="12.75">
+    <row r="5" spans="1:1025">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -534,7 +549,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="12.75">
+    <row r="6" spans="1:1025">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -579,7 +594,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="12.75">
+    <row r="7" spans="1:1025">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -624,7 +639,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="12.75">
+    <row r="8" spans="1:1025">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -669,7 +684,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="12.75">
+    <row r="9" spans="1:1025">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -714,7 +729,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" ht="12.75">
+    <row r="10" spans="1:1025">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -759,7 +774,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" ht="12.75">
+    <row r="11" spans="1:1025">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -804,7 +819,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" ht="12.75">
+    <row r="12" spans="1:1025">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -894,7 +909,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:1025" ht="12.75">
+    <row r="14" spans="1:1025">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -939,7 +954,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" ht="12.75">
+    <row r="15" spans="1:1025">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -982,7 +997,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="16" spans="1:1025" ht="12.75">
+    <row r="16" spans="1:1025">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="17" spans="1:1025" ht="12.75">
+    <row r="17" spans="1:1025">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1083,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="18" spans="1:1025" ht="12.75">
+    <row r="18" spans="1:1025">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1128,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="19" spans="1:1025" ht="12.75">
+    <row r="19" spans="1:1025">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1173,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="20" spans="1:1025" ht="12.75">
+    <row r="20" spans="1:1025">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1218,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" ht="12.75">
+    <row r="21" spans="1:1025">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1246,7 +1261,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="1:1025" ht="12.75">
+    <row r="22" spans="1:1025">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1289,7 +1304,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:1025" ht="12.75">
+    <row r="23" spans="1:1025">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1332,7 +1347,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="12.75">
+    <row r="24" spans="1:1025">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1375,7 +1390,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="12.75">
+    <row r="25" spans="1:1025">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="12.75">
+    <row r="26" spans="1:1025">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1461,7 +1476,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="12.75">
+    <row r="27" spans="1:1025">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1504,7 +1519,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="12.75">
+    <row r="28" spans="1:1025">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="12.75">
+    <row r="30" spans="1:1025">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1633,7 +1648,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="12.75">
+    <row r="31" spans="1:1025">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1676,7 +1691,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="12.75">
+    <row r="32" spans="1:1025">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1719,7 +1734,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="12.75">
+    <row r="33" spans="1:1025">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1762,7 +1777,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" ht="12.75">
+    <row r="34" spans="1:1025">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1805,7 +1820,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="35" spans="1:1025" ht="12.75">
+    <row r="35" spans="1:1025">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1848,7 +1863,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="12.75">
+    <row r="36" spans="1:1025">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1891,7 +1906,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="12.75">
+    <row r="37" spans="1:1025">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1934,7 +1949,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" ht="12.75">
+    <row r="38" spans="1:1025">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1977,7 +1992,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:1025" ht="12.75">
+    <row r="39" spans="1:1025">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -2020,7 +2035,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" ht="12.75">
+    <row r="40" spans="1:1025">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -2063,7 +2078,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="12.75">
+    <row r="41" spans="1:1025">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2106,7 +2121,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:1025" ht="12.75">
+    <row r="42" spans="1:1025">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="12.75">
+    <row r="43" spans="1:1025">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -2192,7 +2207,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="12.75">
+    <row r="44" spans="1:1025">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2278,7 +2293,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="12.75">
+    <row r="46" spans="1:1025">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2321,7 +2336,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="12.75">
+    <row r="47" spans="1:1025">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -2364,7 +2379,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" ht="12.75">
+    <row r="48" spans="1:1025">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -2407,7 +2422,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="49" spans="1:1025" ht="12.75">
+    <row r="49" spans="1:1025">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -2450,7 +2465,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="50" spans="1:1025" ht="12.75">
+    <row r="50" spans="1:1025">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2493,7 +2508,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="51" spans="1:1025" ht="12.75">
+    <row r="51" spans="1:1025">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2536,7 +2551,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="52" spans="1:1025" ht="12.75">
+    <row r="52" spans="1:1025">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -2579,7 +2594,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="53" spans="1:1025" ht="12.75">
+    <row r="53" spans="1:1025">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -2624,7 +2639,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="54" spans="1:1025" ht="12.75">
+    <row r="54" spans="1:1025">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -2669,7 +2684,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="55" spans="1:1025" ht="12.75">
+    <row r="55" spans="1:1025">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -2714,7 +2729,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="56" spans="1:1025" ht="12.75">
+    <row r="56" spans="1:1025">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -2761,7 +2776,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:1025" ht="12.75">
+    <row r="57" spans="1:1025">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -2806,7 +2821,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="58" spans="1:1025" ht="12.75">
+    <row r="58" spans="1:1025">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -2851,7 +2866,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:1025" ht="12.75">
+    <row r="59" spans="1:1025">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -2941,7 +2956,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:1025" ht="12.75">
+    <row r="61" spans="1:1025">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -2986,7 +3001,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="62" spans="1:1025" ht="12.75">
+    <row r="62" spans="1:1025">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -3029,7 +3044,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="63" spans="1:1025" ht="12.75">
+    <row r="63" spans="1:1025">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -3072,7 +3087,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="64" spans="1:1025" ht="12.75">
+    <row r="64" spans="1:1025">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -3119,7 +3134,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="65" spans="1:1025" ht="12.75">
+    <row r="65" spans="1:1025">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -3166,7 +3181,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="66" spans="1:1025" ht="12.75">
+    <row r="66" spans="1:1025">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -3211,7 +3226,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="67" spans="1:1025" ht="12.75">
+    <row r="67" spans="1:1025">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3256,7 +3271,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="68" spans="1:1025" ht="12.75">
+    <row r="68" spans="1:1025">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -3299,7 +3314,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="69" spans="1:1025" ht="12.75">
+    <row r="69" spans="1:1025">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -3342,7 +3357,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="70" spans="1:1025" ht="12.75">
+    <row r="70" spans="1:1025">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -3385,7 +3400,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="71" spans="1:1025" ht="12.75">
+    <row r="71" spans="1:1025">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -3428,7 +3443,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="72" spans="1:1025" ht="12.75">
+    <row r="72" spans="1:1025">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -3471,7 +3486,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:1025" ht="12.75">
+    <row r="73" spans="1:1025">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -3514,7 +3529,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="74" spans="1:1025" ht="12.75">
+    <row r="74" spans="1:1025">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -3600,7 +3615,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="1:1025" ht="12.75">
+    <row r="76" spans="1:1025">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -3643,7 +3658,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="77" spans="1:1025" ht="12.75">
+    <row r="77" spans="1:1025">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -3686,7 +3701,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="78" spans="1:1025" ht="12.75">
+    <row r="78" spans="1:1025">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -3729,7 +3744,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="79" spans="1:1025" ht="12.75">
+    <row r="79" spans="1:1025">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -3772,7 +3787,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="80" spans="1:1025" ht="12.75">
+    <row r="80" spans="1:1025">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -3815,7 +3830,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="81" spans="1:1025" ht="12.75">
+    <row r="81" spans="1:1025">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -3858,7 +3873,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="82" spans="1:1025" ht="12.75">
+    <row r="82" spans="1:1025">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -3901,7 +3916,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="83" spans="1:1025" ht="12.75">
+    <row r="83" spans="1:1025">
       <c r="A83" t="s">
         <v>49</v>
       </c>
@@ -3944,7 +3959,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:1025" ht="12.75">
+    <row r="84" spans="1:1025">
       <c r="A84" t="s">
         <v>49</v>
       </c>
@@ -3987,7 +4002,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="1:1025" ht="12.75">
+    <row r="85" spans="1:1025">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -4030,7 +4045,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="86" spans="1:1025" ht="12.75">
+    <row r="86" spans="1:1025">
       <c r="A86" t="s">
         <v>49</v>
       </c>
@@ -4073,7 +4088,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="87" spans="1:1025" ht="12.75">
+    <row r="87" spans="1:1025">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -4116,7 +4131,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="88" spans="1:1025" ht="12.75">
+    <row r="88" spans="1:1025">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -4159,7 +4174,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="89" spans="1:1025" ht="12.75">
+    <row r="89" spans="1:1025">
       <c r="A89" t="s">
         <v>49</v>
       </c>
@@ -4245,7 +4260,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="91" spans="1:1025" ht="12.75">
+    <row r="91" spans="1:1025">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -4288,7 +4303,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="92" spans="1:1025" ht="12.75">
+    <row r="92" spans="1:1025">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -4331,7 +4346,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="93" spans="1:1025" ht="12.75">
+    <row r="93" spans="1:1025">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -4374,7 +4389,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="94" spans="1:1025" ht="12.75">
+    <row r="94" spans="1:1025">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -4417,7 +4432,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="95" spans="1:1025" ht="12.75">
+    <row r="95" spans="1:1025">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -4460,7 +4475,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="96" spans="1:1025" ht="12.75">
+    <row r="96" spans="1:1025">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -4503,7 +4518,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="97" spans="1:1025" ht="12.75">
+    <row r="97" spans="1:1025">
       <c r="A97" t="s">
         <v>49</v>
       </c>
@@ -4546,7 +4561,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="98" spans="1:1025" ht="12.75">
+    <row r="98" spans="1:1025">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -4593,7 +4608,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="1:1025" ht="12.75">
+    <row r="99" spans="1:1025">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -4640,7 +4655,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="100" spans="1:1025" ht="12.75">
+    <row r="100" spans="1:1025">
       <c r="A100" t="s">
         <v>50</v>
       </c>
@@ -4687,7 +4702,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="101" spans="1:1025" ht="12.75">
+    <row r="101" spans="1:1025">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -4734,7 +4749,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="102" spans="1:1025" ht="12.75">
+    <row r="102" spans="1:1025">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -4781,7 +4796,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="103" spans="1:1025" ht="12.75">
+    <row r="103" spans="1:1025">
       <c r="A103" t="s">
         <v>50</v>
       </c>
@@ -4828,7 +4843,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="104" spans="1:1025" ht="12.75">
+    <row r="104" spans="1:1025">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -4875,7 +4890,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="105" spans="1:1025" ht="12.75">
+    <row r="105" spans="1:1025">
       <c r="A105" t="s">
         <v>50</v>
       </c>
@@ -4922,7 +4937,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="106" spans="1:1025" ht="12.75">
+    <row r="106" spans="1:1025">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -4969,7 +4984,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:1025" ht="12.75">
+    <row r="107" spans="1:1025">
       <c r="A107" t="s">
         <v>50</v>
       </c>
@@ -5016,7 +5031,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="108" spans="1:1025" ht="12.75">
+    <row r="108" spans="1:1025">
       <c r="A108" t="s">
         <v>50</v>
       </c>
@@ -5063,7 +5078,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1025" ht="12.75">
+    <row r="109" spans="1:1025">
       <c r="A109" t="s">
         <v>50</v>
       </c>
@@ -5110,7 +5125,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="110" spans="1:1025" ht="12.75">
+    <row r="110" spans="1:1025">
       <c r="A110" t="s">
         <v>52</v>
       </c>
@@ -5155,7 +5170,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="111" spans="1:1025" ht="12.75">
+    <row r="111" spans="1:1025">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -5200,7 +5215,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="112" spans="1:1025" ht="12.75">
+    <row r="112" spans="1:1025">
       <c r="A112" t="s">
         <v>52</v>
       </c>
@@ -5245,7 +5260,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="113" spans="1:1025" ht="12.75">
+    <row r="113" spans="1:1025">
       <c r="A113" t="s">
         <v>52</v>
       </c>
@@ -5290,7 +5305,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="114" spans="1:1025" ht="12.75">
+    <row r="114" spans="1:1025">
       <c r="A114" t="s">
         <v>52</v>
       </c>
@@ -5337,7 +5352,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="115" spans="1:1025" ht="12.75">
+    <row r="115" spans="1:1025">
       <c r="A115" t="s">
         <v>52</v>
       </c>
@@ -5384,7 +5399,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="116" spans="1:1025" ht="12.75">
+    <row r="116" spans="1:1025">
       <c r="A116" t="s">
         <v>52</v>
       </c>
@@ -5429,7 +5444,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="117" spans="1:1025" ht="12.75">
+    <row r="117" spans="1:1025">
       <c r="A117" t="s">
         <v>52</v>
       </c>
@@ -5474,7 +5489,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="118" spans="1:1025" ht="12.75">
+    <row r="118" spans="1:1025">
       <c r="A118" t="s">
         <v>52</v>
       </c>
@@ -5519,7 +5534,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="119" spans="1:1025" ht="12.75">
+    <row r="119" spans="1:1025">
       <c r="A119" t="s">
         <v>52</v>
       </c>
@@ -5564,7 +5579,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="120" spans="1:1025" ht="12.75">
+    <row r="120" spans="1:1025">
       <c r="A120" t="s">
         <v>52</v>
       </c>
@@ -5609,7 +5624,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="121" spans="1:1025" ht="12.75">
+    <row r="121" spans="1:1025">
       <c r="A121" t="s">
         <v>52</v>
       </c>
@@ -5654,7 +5669,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="122" spans="1:1025" ht="12.75">
+    <row r="122" spans="1:1025">
       <c r="A122" t="s">
         <v>52</v>
       </c>
@@ -5699,7 +5714,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="123" spans="1:1025" ht="12.75">
+    <row r="123" spans="1:1025">
       <c r="A123" t="s">
         <v>57</v>
       </c>
@@ -5748,7 +5763,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:1025" ht="12.75">
+    <row r="124" spans="1:1025">
       <c r="A124" t="s">
         <v>57</v>
       </c>
@@ -5797,7 +5812,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="125" spans="1:1025" ht="12.75">
+    <row r="125" spans="1:1025">
       <c r="A125" t="s">
         <v>57</v>
       </c>
@@ -5846,7 +5861,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="126" spans="1:1025" ht="12.75">
+    <row r="126" spans="1:1025">
       <c r="A126" t="s">
         <v>57</v>
       </c>
@@ -5895,7 +5910,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="127" spans="1:1025" ht="12.75">
+    <row r="127" spans="1:1025">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -5944,7 +5959,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="128" spans="1:1025" ht="12.75">
+    <row r="128" spans="1:1025">
       <c r="A128" t="s">
         <v>58</v>
       </c>
@@ -5993,7 +6008,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="129" spans="1:1025" ht="12.75">
+    <row r="129" spans="1:1025">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -6042,7 +6057,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="130" spans="1:1025" ht="12.75">
+    <row r="130" spans="1:1025">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -6091,7 +6106,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="131" spans="1:1025" ht="12.75">
+    <row r="131" spans="1:1025">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -6140,7 +6155,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="132" spans="1:1025" ht="12.75">
+    <row r="132" spans="1:1025">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -6189,7 +6204,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="133" spans="1:1025" ht="12.75">
+    <row r="133" spans="1:1025">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -6238,7 +6253,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="134" spans="1:1025" ht="12.75">
+    <row r="134" spans="1:1025">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -6285,7 +6300,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="135" spans="1:1025" ht="12.75">
+    <row r="135" spans="1:1025">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -6332,7 +6347,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="136" spans="1:1025" ht="12.75">
+    <row r="136" spans="1:1025">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -6379,7 +6394,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="137" spans="1:1025" ht="12.75">
+    <row r="137" spans="1:1025">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -6426,7 +6441,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="138" spans="1:1025" ht="12.75">
+    <row r="138" spans="1:1025">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -6473,7 +6488,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="139" spans="1:1025" ht="12.75">
+    <row r="139" spans="1:1025">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -6520,7 +6535,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="140" spans="1:1025" ht="12.75">
+    <row r="140" spans="1:1025">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -6567,7 +6582,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="141" spans="1:1025" ht="12.75">
+    <row r="141" spans="1:1025">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -6614,7 +6629,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="142" spans="1:1025" ht="12.75">
+    <row r="142" spans="1:1025">
       <c r="A142" t="s">
         <v>60</v>
       </c>
@@ -6661,7 +6676,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="143" spans="1:1025" ht="12.75">
+    <row r="143" spans="1:1025">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -6708,7 +6723,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="144" spans="1:1025" ht="12.75">
+    <row r="144" spans="1:1025">
       <c r="A144" t="s">
         <v>60</v>
       </c>
@@ -6755,7 +6770,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="145" spans="1:1025" ht="12.75">
+    <row r="145" spans="1:1025">
       <c r="A145" t="s">
         <v>60</v>
       </c>
@@ -6802,7 +6817,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="146" spans="1:1025" ht="12.75">
+    <row r="146" spans="1:1025">
       <c r="A146" t="s">
         <v>60</v>
       </c>
@@ -6845,7 +6860,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="147" spans="1:1025" ht="12.75">
+    <row r="147" spans="1:1025">
       <c r="A147" t="s">
         <v>60</v>
       </c>
@@ -6888,7 +6903,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="148" spans="1:1025" ht="12.75">
+    <row r="148" spans="1:1025">
       <c r="A148" t="s">
         <v>60</v>
       </c>
@@ -6931,7 +6946,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="149" spans="1:1025" ht="12.75">
+    <row r="149" spans="1:1025">
       <c r="A149" t="s">
         <v>60</v>
       </c>
@@ -6974,7 +6989,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="150" spans="1:1025" ht="12.75">
+    <row r="150" spans="1:1025">
       <c r="A150" t="s">
         <v>60</v>
       </c>
@@ -7017,7 +7032,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="151" spans="1:1025" ht="12.75">
+    <row r="151" spans="1:1025">
       <c r="A151" t="s">
         <v>60</v>
       </c>
@@ -7060,7 +7075,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="152" spans="1:1025" ht="12.75">
+    <row r="152" spans="1:1025">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -7103,7 +7118,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="153" spans="1:1025" ht="12.75">
+    <row r="153" spans="1:1025">
       <c r="A153" t="s">
         <v>60</v>
       </c>
@@ -7146,7 +7161,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="154" spans="1:1025" ht="12.75">
+    <row r="154" spans="1:1025">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -7189,7 +7204,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="155" spans="1:1025" ht="12.75">
+    <row r="155" spans="1:1025">
       <c r="A155" t="s">
         <v>60</v>
       </c>
@@ -7232,7 +7247,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="156" spans="1:1025" ht="12.75">
+    <row r="156" spans="1:1025">
       <c r="A156" t="s">
         <v>60</v>
       </c>
@@ -7275,7 +7290,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="157" spans="1:1025" ht="12.75">
+    <row r="157" spans="1:1025">
       <c r="A157" t="s">
         <v>60</v>
       </c>
@@ -7318,7 +7333,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="158" spans="1:1025" ht="12.75">
+    <row r="158" spans="1:1025">
       <c r="A158" t="s">
         <v>73</v>
       </c>
@@ -7361,7 +7376,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="159" spans="1:1025" ht="12.75">
+    <row r="159" spans="1:1025">
       <c r="A159" t="s">
         <v>73</v>
       </c>
@@ -7404,7 +7419,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="160" spans="1:1025" ht="12.75">
+    <row r="160" spans="1:1025">
       <c r="A160" t="s">
         <v>73</v>
       </c>
@@ -7447,7 +7462,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="161" spans="1:1025" ht="12.75">
+    <row r="161" spans="1:1025">
       <c r="A161" t="s">
         <v>73</v>
       </c>
@@ -7490,7 +7505,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="162" spans="1:1025" ht="12.75">
+    <row r="162" spans="1:1025">
       <c r="A162" t="s">
         <v>73</v>
       </c>
@@ -7533,7 +7548,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="163" spans="1:1025" ht="12.75">
+    <row r="163" spans="1:1025">
       <c r="A163" t="s">
         <v>73</v>
       </c>
@@ -7576,7 +7591,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="164" spans="1:1025" ht="12.75">
+    <row r="164" spans="1:1025">
       <c r="A164" t="s">
         <v>73</v>
       </c>
@@ -7619,7 +7634,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="165" spans="1:1025" ht="12.75">
+    <row r="165" spans="1:1025">
       <c r="A165" t="s">
         <v>73</v>
       </c>
@@ -7662,7 +7677,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="166" spans="1:1025" ht="12.75">
+    <row r="166" spans="1:1025">
       <c r="A166" t="s">
         <v>73</v>
       </c>
@@ -7705,7 +7720,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="167" spans="1:1025" ht="12.75">
+    <row r="167" spans="1:1025">
       <c r="A167" t="s">
         <v>73</v>
       </c>
@@ -7748,7 +7763,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="168" spans="1:1025" ht="12.75">
+    <row r="168" spans="1:1025">
       <c r="A168" t="s">
         <v>73</v>
       </c>
@@ -7791,7 +7806,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="169" spans="1:1025" ht="12.75">
+    <row r="169" spans="1:1025">
       <c r="A169" t="s">
         <v>73</v>
       </c>
@@ -7834,7 +7849,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="170" spans="1:1025" ht="12.75">
+    <row r="170" spans="1:1025">
       <c r="A170" t="s">
         <v>73</v>
       </c>
@@ -7877,7 +7892,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="171" spans="1:1025" ht="12.75">
+    <row r="171" spans="1:1025">
       <c r="A171" t="s">
         <v>73</v>
       </c>
@@ -7920,7 +7935,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="172" spans="1:1025" ht="12.75">
+    <row r="172" spans="1:1025">
       <c r="A172" t="s">
         <v>73</v>
       </c>
@@ -7963,7 +7978,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="173" spans="1:1025" ht="12.75">
+    <row r="173" spans="1:1025">
       <c r="A173" t="s">
         <v>73</v>
       </c>
@@ -8006,7 +8021,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="174" spans="1:1025" ht="12.75">
+    <row r="174" spans="1:1025">
       <c r="A174" t="s">
         <v>73</v>
       </c>
@@ -8049,7 +8064,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="175" spans="1:1025" ht="12.75">
+    <row r="175" spans="1:1025">
       <c r="A175" t="s">
         <v>73</v>
       </c>
@@ -8092,7 +8107,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="176" spans="1:1025" ht="12.75">
+    <row r="176" spans="1:1025">
       <c r="A176" t="s">
         <v>73</v>
       </c>
@@ -8135,7 +8150,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="177" spans="1:1025" ht="12.75">
+    <row r="177" spans="1:1025">
       <c r="A177" t="s">
         <v>73</v>
       </c>
@@ -8178,7 +8193,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="178" spans="1:1025" ht="12.75">
+    <row r="178" spans="1:1025">
       <c r="A178" t="s">
         <v>73</v>
       </c>
@@ -8221,7 +8236,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="179" spans="1:1025" ht="12.75">
+    <row r="179" spans="1:1025">
       <c r="A179" t="s">
         <v>73</v>
       </c>
@@ -8264,7 +8279,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="180" spans="1:1025" ht="12.75">
+    <row r="180" spans="1:1025">
       <c r="A180" t="s">
         <v>73</v>
       </c>
@@ -8307,7 +8322,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="181" spans="1:1025" ht="12.75">
+    <row r="181" spans="1:1025">
       <c r="A181" t="s">
         <v>73</v>
       </c>
@@ -8350,295 +8365,909 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="182" spans="1:1025" ht="12.75"/>
-    <row r="183" spans="1:1025" ht="12.75">
-      <c r="A183" s="1" t="inlineStr">
+    <row r="182" spans="1:1025">
+      <c r="A182" t="s">
+        <v>74</v>
+      </c>
+      <c r="B182" t="s">
+        <v>75</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>A-M</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>TilPondKentSTMic200511</t>
+        </is>
+      </c>
+      <c r="F182" t="s">
+        <v>51</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>mgm4440440.3</t>
+        </is>
+      </c>
+      <c r="H182">
+        <v>381076</v>
+      </c>
+      <c r="I182">
+        <v>381076</v>
+      </c>
+      <c r="J182">
+        <v>348432</v>
+      </c>
+      <c r="K182">
+        <v>284930</v>
+      </c>
+      <c r="L182">
+        <v>33.113</v>
+      </c>
+      <c r="M182">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1025">
+      <c r="A183" t="s">
+        <v>74</v>
+      </c>
+      <c r="B183" t="s">
+        <v>75</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1" t="inlineStr">
+        <is>
+          <t>B-M</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>TilPondKentSTMic20060504</t>
+        </is>
+      </c>
+      <c r="F183" t="s">
+        <v>51</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>mgm4440413.3</t>
+        </is>
+      </c>
+      <c r="H183">
+        <v>63978</v>
+      </c>
+      <c r="I183">
+        <v>63978</v>
+      </c>
+      <c r="J183">
+        <v>60887</v>
+      </c>
+      <c r="K183">
+        <v>50060</v>
+      </c>
+      <c r="L183">
+        <v>32.655999999999999</v>
+      </c>
+      <c r="M183">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1025">
+      <c r="A184" t="s">
+        <v>74</v>
+      </c>
+      <c r="B184" t="s">
+        <v>75</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="1" t="inlineStr">
+        <is>
+          <t>C-M</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>TilPondKentSTMic200608</t>
+        </is>
+      </c>
+      <c r="F184" t="s">
+        <v>51</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>mgm4440422.3</t>
+        </is>
+      </c>
+      <c r="H184">
+        <v>67612</v>
+      </c>
+      <c r="I184">
+        <v>67612</v>
+      </c>
+      <c r="J184">
+        <v>58896</v>
+      </c>
+      <c r="K184">
+        <v>50741</v>
+      </c>
+      <c r="L184">
+        <v>32.732999999999997</v>
+      </c>
+      <c r="M184">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1025" ht="12.8">
+      <c r="A185" t="s">
+        <v>74</v>
+      </c>
+      <c r="B185" t="s">
+        <v>75</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1" t="inlineStr">
+        <is>
+          <t>B2-M</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>PrePondKentSTMic20060504</t>
+        </is>
+      </c>
+      <c r="F185" t="s">
+        <v>51</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>mgm4440411.3</t>
+        </is>
+      </c>
+      <c r="H185">
+        <v>44094</v>
+      </c>
+      <c r="I185">
+        <v>44094</v>
+      </c>
+      <c r="J185">
+        <v>41863</v>
+      </c>
+      <c r="K185">
+        <v>33905</v>
+      </c>
+      <c r="L185">
+        <v>32.741</v>
+      </c>
+      <c r="M185">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1025" ht="12.8">
+      <c r="A186" t="s">
+        <v>74</v>
+      </c>
+      <c r="B186" t="s">
+        <v>75</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="1" t="inlineStr">
+        <is>
+          <t>D-M</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>LowSalternSDbayMic200407</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>6-8% (8)</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>mgm4440437.3</t>
+        </is>
+      </c>
+      <c r="H186">
+        <v>268206</v>
+      </c>
+      <c r="I186">
+        <v>268206</v>
+      </c>
+      <c r="J186">
+        <v>247225</v>
+      </c>
+      <c r="K186">
+        <v>187283</v>
+      </c>
+      <c r="L186">
+        <v>31.798999999999999</v>
+      </c>
+      <c r="M186">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1025" ht="12.8">
+      <c r="A187" t="s">
+        <v>74</v>
+      </c>
+      <c r="B187" t="s">
+        <v>75</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1" t="inlineStr">
+        <is>
+          <t>E-M</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>LowSalternSDbayMic20051110</t>
+        </is>
+      </c>
+      <c r="F187" t="s">
+        <v>76</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>mgm4440324.3</t>
+        </is>
+      </c>
+      <c r="H187">
+        <v>49074</v>
+      </c>
+      <c r="I187">
+        <v>49074</v>
+      </c>
+      <c r="J187">
+        <v>45751</v>
+      </c>
+      <c r="K187">
+        <v>34743</v>
+      </c>
+      <c r="L187">
+        <v>31.725999999999999</v>
+      </c>
+      <c r="M187">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1025" ht="12.8">
+      <c r="A188" t="s">
+        <v>74</v>
+      </c>
+      <c r="B188" t="s">
+        <v>75</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1" t="inlineStr">
+        <is>
+          <t>F-M</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>LowSalternSDbayMic20051128</t>
+        </is>
+      </c>
+      <c r="F188" t="s">
+        <v>76</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>mgm4440426.3</t>
+        </is>
+      </c>
+      <c r="H188">
+        <v>34296</v>
+      </c>
+      <c r="I188">
+        <v>34296</v>
+      </c>
+      <c r="J188">
+        <v>32564</v>
+      </c>
+      <c r="K188">
+        <v>23414</v>
+      </c>
+      <c r="L188">
+        <v>32.612000000000002</v>
+      </c>
+      <c r="M188">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1025">
+      <c r="A189" t="s">
+        <v>74</v>
+      </c>
+      <c r="B189" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1" t="inlineStr">
+        <is>
+          <t>G-M</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>MedSalternSDbayMic20051110</t>
+        </is>
+      </c>
+      <c r="F189" t="s">
+        <v>77</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>mgm4440435.3</t>
+        </is>
+      </c>
+      <c r="H189">
+        <v>38929</v>
+      </c>
+      <c r="I189">
+        <v>38929</v>
+      </c>
+      <c r="J189">
+        <v>34884</v>
+      </c>
+      <c r="K189">
+        <v>30648</v>
+      </c>
+      <c r="L189">
+        <v>32.509999999999998</v>
+      </c>
+      <c r="M189">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1025">
+      <c r="A190" t="s">
+        <v>74</v>
+      </c>
+      <c r="B190" t="s">
+        <v>75</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="1" t="inlineStr">
+        <is>
+          <t>H-M</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>MedSalternSDbayMic20051111</t>
+        </is>
+      </c>
+      <c r="F190" t="s">
+        <v>77</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>mgm4440434.3</t>
+        </is>
+      </c>
+      <c r="H190">
+        <v>23261</v>
+      </c>
+      <c r="I190">
+        <v>23261</v>
+      </c>
+      <c r="J190">
+        <v>20816</v>
+      </c>
+      <c r="K190">
+        <v>18666</v>
+      </c>
+      <c r="L190">
+        <v>32.308999999999997</v>
+      </c>
+      <c r="M190">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1025">
+      <c r="A191" t="s">
+        <v>74</v>
+      </c>
+      <c r="B191" t="s">
+        <v>75</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="1" t="inlineStr">
+        <is>
+          <t>I-M</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>MedSalternSDbayMic20051116</t>
+        </is>
+      </c>
+      <c r="F191" t="s">
+        <v>77</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>mgm4440425.3</t>
+        </is>
+      </c>
+      <c r="H191">
+        <v>120987</v>
+      </c>
+      <c r="I191">
+        <v>120987</v>
+      </c>
+      <c r="J191">
+        <v>111382</v>
+      </c>
+      <c r="K191">
+        <v>99723</v>
+      </c>
+      <c r="L191">
+        <v>32.057000000000002</v>
+      </c>
+      <c r="M191">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1025">
+      <c r="A192" t="s">
+        <v>74</v>
+      </c>
+      <c r="B192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="1" t="inlineStr">
+        <is>
+          <t>K-M</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>MedSalterSDbayMic20051128</t>
+        </is>
+      </c>
+      <c r="F192" t="s">
+        <v>77</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>mgm4440416.3</t>
+        </is>
+      </c>
+      <c r="H192">
+        <v>8062</v>
+      </c>
+      <c r="I192">
+        <v>8062</v>
+      </c>
+      <c r="J192">
+        <v>7669</v>
+      </c>
+      <c r="K192">
+        <v>5574</v>
+      </c>
+      <c r="L192">
+        <v>29.954999999999998</v>
+      </c>
+      <c r="M192">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1025">
+      <c r="A193" t="s">
+        <v>74</v>
+      </c>
+      <c r="B193" t="s">
+        <v>75</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="1" t="inlineStr">
+        <is>
+          <t>P-M</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>HighSalternSDbayMicD200407</t>
+        </is>
+      </c>
+      <c r="F193" t="s">
+        <v>78</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>mgm4440438.3</t>
+        </is>
+      </c>
+      <c r="H193">
+        <v>340725</v>
+      </c>
+      <c r="I193">
+        <v>340725</v>
+      </c>
+      <c r="J193">
+        <v>298750</v>
+      </c>
+      <c r="K193">
+        <v>267319</v>
+      </c>
+      <c r="L193">
+        <v>32.987000000000002</v>
+      </c>
+      <c r="M193">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1025">
+      <c r="A194" t="s">
+        <v>74</v>
+      </c>
+      <c r="B194" t="s">
+        <v>75</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="1" t="inlineStr">
+        <is>
+          <t>M-M</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>HighSalternSDbayMic20051128</t>
+        </is>
+      </c>
+      <c r="F194" t="s">
+        <v>78</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>mgm4440419.3</t>
+        </is>
+      </c>
+      <c r="H194">
+        <v>35446</v>
+      </c>
+      <c r="I194">
+        <v>35446</v>
+      </c>
+      <c r="J194">
+        <v>34024</v>
+      </c>
+      <c r="K194">
+        <v>30334</v>
+      </c>
+      <c r="L194">
+        <v>33.710999999999999</v>
+      </c>
+      <c r="M194">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1025">
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:1025" customHeight="1" ht="12.75">
+      <c r="A196" s="1" t="inlineStr">
         <is>
           <t>(a) Study name used to identify the dataset in the R code (https://github.com/jedick/JMDplots).</t>
-        </is>
-      </c>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="1:1025" ht="12.75">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>(b) Sequence database.</t>
-        </is>
-      </c>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-    </row>
-    <row r="185" spans="1:1025" ht="12.8">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>     Note: Metagenomic data for the Baltic Sea transect (CAMERA accession CAM_P_0001109) </t>
-        </is>
-      </c>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-    </row>
-    <row r="186" spans="1:1025" ht="12.8">
-      <c r="A186" s="5" t="inlineStr">
-        <is>
-          <t>     were found on iMicrobe (https://www.imicrobe.us/#/projects/114).</t>
-        </is>
-      </c>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-    </row>
-    <row r="187" spans="1:1025" ht="12.8">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>     The marine metagenomes used by Eiler et al. were found under iMicrobe project directories 6, 7, and 72.</t>
-        </is>
-      </c>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="1:1025" ht="12.8">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>     Note: SRA IDs for South Bay Salterns (Kimbrel et al.) were found by searches on the JGI IMG website.</t>
-        </is>
-      </c>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-    </row>
-    <row r="189" spans="1:1025" ht="12.75">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>(c) MG (metagenome) or MT (metatranscriptome).</t>
-        </is>
-      </c>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-    </row>
-    <row r="190" spans="1:1025" ht="12.75">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>(d) Sample name used in this study.</t>
-        </is>
-      </c>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-    </row>
-    <row r="191" spans="1:1025" ht="12.75">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>(e) Site description from the database or other publications.</t>
-        </is>
-      </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-    </row>
-    <row r="192" spans="1:1025" ht="12.75">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>(f) Salinity, in units reported by the authors.</t>
-        </is>
-      </c>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="1:1025" ht="12.75">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>(g) SRA accession or CAMERA ID (for iMicrobe).</t>
-        </is>
-      </c>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-    </row>
-    <row r="194" spans="1:1025" ht="12.75">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>(h) Total number of reads available in the database.</t>
-        </is>
-      </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-    </row>
-    <row r="195" spans="1:1025" ht="12.75">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>     For paired-end sequencing, this is the number of spots (not split).</t>
-        </is>
-      </c>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="1:1025" ht="12.75">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>(i) Number of reads used for analysis in this study.</t>
         </is>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:1025" ht="12.75">
+    <row r="197" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>     For paired-end sequencing, these are the individual reads (split spots).</t>
+          <t>(b) Sequence database.</t>
         </is>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:1025" ht="12.75">
+    <row r="198" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>(j) Number of reads after adapter trimming, length filtering, and dereplication.</t>
+          <t>     Note: Metagenomic data for the Baltic Sea transect (CAMERA accession CAM_P_0001109) </t>
         </is>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:1025" ht="12.75">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>     For metatranscriptomes, rRNA reads identified by sortmeRNA were also removed.</t>
+    <row r="199" spans="1:1025" customHeight="1" ht="12.75">
+      <c r="A199" s="5" t="inlineStr">
+        <is>
+          <t>     were found on iMicrobe (https://www.imicrobe.us/#/projects/114).</t>
         </is>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:1025" ht="12.75">
+    <row r="200" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>(k) Number of coding reads identified by FragGeneScan.</t>
+          <t>     The marine metagenomes used by Eiler et al. were found under iMicrobe project directories 6, 7, and 72.</t>
         </is>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:1025" ht="12.75">
+    <row r="201" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>     Because of partial predicted gene sequences, this can be greater than the number of input reads.</t>
+          <t>     Note: SRA IDs for South Bay Salterns (Kimbrel et al.) were found by searches on the JGI IMG website.</t>
         </is>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:1025" ht="12.75">
+    <row r="202" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>(l) Average length of the predicted proteins.</t>
+          <t>(c) MG (metagenome) or MT (metatranscriptome).</t>
         </is>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:1025" ht="12.75">
+    <row r="203" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>(m) Number of proteins subsampled to calculate amino acid compositions for an average of 50000 amino acids.</t>
+          <t>(d) Sample name used in this study.</t>
         </is>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:1025" ht="12.75">
+    <row r="204" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>     </t>
+          <t>(e) Site description from the database or other publications.</t>
         </is>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:1025" ht="12.75">
-      <c r="A205" t="inlineStr">
+    <row r="205" spans="1:1025" customHeight="1" ht="12.75">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>(f) Salinity, in units used in the original publication.</t>
+        </is>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:1025" customHeight="1" ht="12.75">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>(g) SRA accession, CAMERA ID (for iMicrobe), or MG-RAST ID.</t>
+        </is>
+      </c>
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>(h) Total number of reads available in the database.</t>
+        </is>
+      </c>
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>     For paired-end sequencing, this is the number of spots (not split).</t>
+        </is>
+      </c>
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:1025">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>     For Rodriguez-Brito sample P-M, this is less than the number of reads listed in Table 1 of Rodriguez-Brito et al., 2010,</t>
+        </is>
+      </c>
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="1:1025">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>     because we used only one MG-RAST file; the others are mgm4440429.3 with 39553 reads, mgm4440430.3 with 78524 reads, and mgm4440433.3 with 123879 reads.</t>
+        </is>
+      </c>
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>(i) Number of reads used for analysis in this study.</t>
+        </is>
+      </c>
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>     For paired-end sequencing, these are the individual reads (split spots).</t>
+        </is>
+      </c>
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>(j) Number of reads after adapter trimming, length filtering, and dereplication.</t>
+        </is>
+      </c>
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>     For metatranscriptomes, rRNA reads identified by sortmeRNA were also removed.</t>
+        </is>
+      </c>
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>(k) Number of coding reads identified by FragGeneScan.</t>
+        </is>
+      </c>
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>     Because of partial predicted gene sequences, this can be greater than the number of input reads.</t>
+        </is>
+      </c>
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>(l) Average length of the predicted proteins.</t>
+        </is>
+      </c>
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>(m) Number of proteins subsampled to calculate amino acid compositions for an average of 50000 amino acids.</t>
+        </is>
+      </c>
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>     </t>
+        </is>
+      </c>
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A220" t="inlineStr">
         <is>
           <t>Notes for salinity values:</t>
         </is>
       </c>
     </row>
-    <row r="206" spans="1:1025" ht="14">
-      <c r="A206" t="inlineStr">
+    <row r="221" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A221" t="inlineStr">
         <is>
           <t>(1) Table S1 of Dupont et al., 2014 (doi:10.1371/journal.pone.0089549)</t>
         </is>
       </c>
     </row>
-    <row r="207" spans="1:1025" ht="14">
-      <c r="A207" t="inlineStr">
+    <row r="222" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A222" t="inlineStr">
         <is>
           <t>(2) Estimated from Figure 1 of Asplund-Samuelsson et al., 2016 (doi:10.3389/fmicb.2016.01043)</t>
         </is>
       </c>
     </row>
-    <row r="208" spans="1:1025" ht="14">
-      <c r="A208" t="inlineStr">
+    <row r="223" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A223" t="inlineStr">
         <is>
           <t>(3) Fernandez et al., 2013 (doi:10.1128/genomea.00933-13)</t>
         </is>
       </c>
     </row>
-    <row r="209" spans="1:1025" ht="14">
-      <c r="A209" t="inlineStr">
+    <row r="224" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A224" t="inlineStr">
         <is>
           <t>(4) Kimbrel et al., 2018 (doi:10.3389/fmicb.2018.01492)</t>
         </is>
       </c>
     </row>
-    <row r="210" spans="1:1025" ht="14">
-      <c r="A210" t="inlineStr">
+    <row r="225" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A225" t="inlineStr">
         <is>
           <t>(5) Vavourakis et al., 2016 (doi:10.3389/fmicb.2016.00211)</t>
         </is>
       </c>
     </row>
-    <row r="211" spans="1:1025" ht="14">
-      <c r="A211" t="inlineStr">
+    <row r="226" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A226" t="inlineStr">
         <is>
           <t>(6) Additional file 2 of Satinsky et al., 2015 (doi:10.1186/s40168-015-0099-0)</t>
         </is>
       </c>
     </row>
-    <row r="212" spans="1:1025" ht="14">
-      <c r="A212" t="inlineStr">
+    <row r="227" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A227" t="inlineStr">
         <is>
           <t>(7) Additional file 2 of Satinsky et al., 2014 (doi:10.1186/2049-2618-2-17)</t>
         </is>
       </c>
     </row>
-    <row r="213" spans="1:1025" ht="14">
-      <c r="A213" t="inlineStr">
+    <row r="228" spans="1:1025">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>(8) Rodriguez-Brito et al., 2010 (doi:10.1038/ismej.2010.1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229" spans="1:1025" customHeight="1" ht="12.6">
+      <c r="A229" t="inlineStr">
         <is>
           <t>NA - no data found</t>
         </is>
       </c>
     </row>
-    <row r="214" spans="1:1025" ht="14"/>
+    <row r="230" spans="1:1025" ht="16.5"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="A186" r:id="rId1" location="/projects/114"/>
+    <hyperlink ref="A199" r:id="rId1" location="/projects/114"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
